--- a/misc/thread_efficiency/result.xlsx
+++ b/misc/thread_efficiency/result.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26260" windowHeight="14900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>线程数</t>
     <phoneticPr fontId="1"/>
@@ -24,22 +28,30 @@
     <t>时间</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>公司电脑</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mac</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -48,6 +60,22 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="SimSun"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -68,22 +96,30 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -96,8 +132,16 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+  <cellStyles count="9">
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -110,6 +154,497 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>46.859</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41.963</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.172</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.608</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34.776</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34.261</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33.965</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33.436</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33.308</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33.078</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32.901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2106428072"/>
+        <c:axId val="2106445704"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2106428072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2106445704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2106445704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2106428072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$17:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>61.797339</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42.927369</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.647856</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.688807</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.847965</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.640404</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33.385732</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37.303074</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37.299302</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36.455949</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2108231240"/>
+        <c:axId val="2108269144"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2108231240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2108269144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2108269144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2108231240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$30:$E$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.769999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.49</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.44</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.48</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2109194792"/>
+        <c:axId val="2108934664"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2109194792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2108934664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2108934664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2109194792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>615950</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -155,7 +690,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -190,7 +725,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -399,18 +934,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:F14"/>
+  <dimension ref="C1:F39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="S36" sqref="S36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="3:6">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="3:6">
       <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
@@ -419,7 +959,7 @@
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="3:6">
       <c r="D3" s="3">
         <v>1</v>
       </c>
@@ -428,7 +968,7 @@
       </c>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="3:6">
       <c r="D4" s="3">
         <v>2</v>
       </c>
@@ -440,7 +980,7 @@
         <v>4.8960000000000008</v>
       </c>
     </row>
-    <row r="5" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="3:6">
       <c r="D5" s="3">
         <v>3</v>
       </c>
@@ -452,7 +992,7 @@
         <v>4.7910000000000039</v>
       </c>
     </row>
-    <row r="6" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:6">
       <c r="D6" s="3">
         <v>4</v>
       </c>
@@ -464,7 +1004,7 @@
         <v>1.5640000000000001</v>
       </c>
     </row>
-    <row r="7" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:6">
       <c r="D7" s="3">
         <v>5</v>
       </c>
@@ -476,7 +1016,7 @@
         <v>0.83199999999999363</v>
       </c>
     </row>
-    <row r="8" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="3:6">
       <c r="D8" s="3">
         <v>6</v>
       </c>
@@ -488,7 +1028,7 @@
         <v>0.51500000000000057</v>
       </c>
     </row>
-    <row r="9" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="3:6">
       <c r="D9" s="3">
         <v>7</v>
       </c>
@@ -500,7 +1040,7 @@
         <v>0.29599999999999937</v>
       </c>
     </row>
-    <row r="10" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="3:6">
       <c r="D10" s="3">
         <v>8</v>
       </c>
@@ -512,7 +1052,7 @@
         <v>0.52900000000000347</v>
       </c>
     </row>
-    <row r="11" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="3:6">
       <c r="D11" s="3">
         <v>9</v>
       </c>
@@ -524,7 +1064,7 @@
         <v>0.12800000000000011</v>
       </c>
     </row>
-    <row r="12" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="3:6">
       <c r="D12" s="3">
         <v>10</v>
       </c>
@@ -536,7 +1076,7 @@
         <v>0.22999999999999687</v>
       </c>
     </row>
-    <row r="13" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="3:6">
       <c r="D13" s="3">
         <v>100</v>
       </c>
@@ -548,13 +1088,200 @@
         <v>0.1769999999999996</v>
       </c>
     </row>
-    <row r="14" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="3:6">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="3:6">
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6">
+      <c r="D16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5">
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4">
+        <v>61.797339000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5">
+      <c r="D18" s="4">
+        <v>2</v>
+      </c>
+      <c r="E18" s="4">
+        <v>42.927368999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5">
+      <c r="D19" s="4">
+        <v>3</v>
+      </c>
+      <c r="E19" s="4">
+        <v>35.647855999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5">
+      <c r="D20" s="4">
+        <v>4</v>
+      </c>
+      <c r="E20" s="4">
+        <v>34.688806999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5">
+      <c r="D21" s="4">
+        <v>5</v>
+      </c>
+      <c r="E21" s="4">
+        <v>35.847965000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5">
+      <c r="D22" s="4">
+        <v>6</v>
+      </c>
+      <c r="E22" s="4">
+        <v>36.640403999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5">
+      <c r="D23" s="4">
+        <v>7</v>
+      </c>
+      <c r="E23" s="4">
+        <v>33.385731999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5">
+      <c r="D24" s="4">
+        <v>8</v>
+      </c>
+      <c r="E24" s="4">
+        <v>37.303074000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5">
+      <c r="D25" s="4">
+        <v>9</v>
+      </c>
+      <c r="E25" s="4">
+        <v>37.299301999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5">
+      <c r="D26" s="4">
+        <v>10</v>
+      </c>
+      <c r="E26" s="4">
+        <v>36.455948999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5">
+      <c r="D29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="4:5">
+      <c r="D30" s="4">
+        <v>1</v>
+      </c>
+      <c r="E30" s="4">
+        <v>4.7699999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="4:5">
+      <c r="D31" s="4">
+        <v>2</v>
+      </c>
+      <c r="E31" s="4">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="32" spans="4:5">
+      <c r="D32" s="4">
+        <v>3</v>
+      </c>
+      <c r="E32" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5">
+      <c r="D33" s="4">
+        <v>4</v>
+      </c>
+      <c r="E33" s="4">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5">
+      <c r="D34" s="4">
+        <v>5</v>
+      </c>
+      <c r="E34" s="4">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5">
+      <c r="D35" s="4">
+        <v>6</v>
+      </c>
+      <c r="E35" s="4">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5">
+      <c r="D36" s="4">
+        <v>7</v>
+      </c>
+      <c r="E36" s="4">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5">
+      <c r="D37" s="4">
+        <v>8</v>
+      </c>
+      <c r="E37" s="4">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5">
+      <c r="D38" s="4">
+        <v>9</v>
+      </c>
+      <c r="E38" s="4">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="39" spans="4:5">
+      <c r="D39" s="4">
+        <v>10</v>
+      </c>
+      <c r="E39" s="4">
+        <v>2.46</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>